--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251015_201343.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251015_201343.xlsx
@@ -4745,7 +4745,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
